--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-01_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-01_valid.xlsx
@@ -8573,7 +8573,7 @@
         <v>240</v>
       </c>
       <c r="N24">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>240</v>
@@ -8687,7 +8687,7 @@
         <v>2057.142857142857</v>
       </c>
       <c r="AZ24">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="BA24">
         <v>654.5454545454546</v>
@@ -8801,7 +8801,7 @@
         <v>0.4435409351321382</v>
       </c>
       <c r="CL24">
-        <v>0.4094117647058824</v>
+        <v>0</v>
       </c>
       <c r="CM24">
         <v>0.8181818181818182</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="DA24">
-        <v>0.416759187743433</v>
+        <v>0.3813122817082917</v>
       </c>
     </row>
     <row r="25" spans="1:105">
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3542</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>651.9018404907976</v>
+        <v>0</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="CL26">
-        <v>0.7669433417538795</v>
+        <v>0</v>
       </c>
       <c r="CM26">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="DA26">
-        <v>0.6788815244407623</v>
+        <v>0.09197183098591551</v>
       </c>
     </row>
     <row r="27" spans="1:105">
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>2341</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="AZ56">
-        <v>544.4186046511628</v>
+        <v>0</v>
       </c>
       <c r="BA56">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="CL56">
-        <v>0.6404924760601916</v>
+        <v>0</v>
       </c>
       <c r="CM56">
         <v>0</v>
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
       <c r="DA56">
-        <v>0.5595803974900977</v>
+        <v>0.2109579105206263</v>
       </c>
     </row>
     <row r="57" spans="1:105">
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="BN73">
-        <v>22.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="BO73">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="CZ73">
-        <v>0.1138888888888889</v>
+        <v>0</v>
       </c>
       <c r="DA73">
-        <v>0.1990905481973366</v>
+        <v>0.09166696741131043</v>
       </c>
     </row>
     <row r="74" spans="1:105">
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="O74">
         <v>212</v>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="AZ74">
-        <v>853.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="BA74">
         <v>669.4736842105264</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="CL74">
-        <v>1.003921568627451</v>
+        <v>0</v>
       </c>
       <c r="CM74">
         <v>0.8368421052631579</v>
@@ -24696,7 +24696,7 @@
         <v>0</v>
       </c>
       <c r="DA74">
-        <v>0.7973227210545952</v>
+        <v>0.7552980972515856</v>
       </c>
     </row>
     <row r="75" spans="1:105">
@@ -25691,7 +25691,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>3</v>
@@ -25805,7 +25805,7 @@
         <v>7.692307692307693</v>
       </c>
       <c r="AZ78">
-        <v>547.5</v>
+        <v>0</v>
       </c>
       <c r="BA78">
         <v>11.25</v>
@@ -25919,7 +25919,7 @@
         <v>0.001658539821541115</v>
       </c>
       <c r="CL78">
-        <v>0.6441176470588236</v>
+        <v>0</v>
       </c>
       <c r="CM78">
         <v>0.0140625</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="DA78">
-        <v>0.2792129193811251</v>
+        <v>0.1743184425064058</v>
       </c>
     </row>
     <row r="79" spans="1:105">
@@ -27581,7 +27581,7 @@
         <v>0.8854961832061069</v>
       </c>
       <c r="J84">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="AV84">
-        <v>65.58139534883721</v>
+        <v>0</v>
       </c>
       <c r="AW84">
         <v>0</v>
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="CH84">
-        <v>0.8744186046511627</v>
+        <v>0</v>
       </c>
       <c r="CI84">
         <v>0</v>
@@ -27866,7 +27866,7 @@
         <v>0</v>
       </c>
       <c r="DA84">
-        <v>0.5421558848674836</v>
+        <v>0.2990524365916215</v>
       </c>
     </row>
     <row r="85" spans="1:105">

--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-01_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-01_valid.xlsx
@@ -8573,7 +8573,7 @@
         <v>240</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="O24">
         <v>240</v>
@@ -8687,7 +8687,7 @@
         <v>2057.142857142857</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="BA24">
         <v>654.5454545454546</v>
@@ -8801,7 +8801,7 @@
         <v>0.4435409351321382</v>
       </c>
       <c r="CL24">
-        <v>0</v>
+        <v>0.4094117647058824</v>
       </c>
       <c r="CM24">
         <v>0.8181818181818182</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="DA24">
-        <v>0.3813122817082917</v>
+        <v>0.416759187743433</v>
       </c>
     </row>
     <row r="25" spans="1:105">
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>3542</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>651.9018404907976</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="CL26">
-        <v>0</v>
+        <v>0.7669433417538795</v>
       </c>
       <c r="CM26">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="DA26">
-        <v>0.09197183098591551</v>
+        <v>0.6788815244407623</v>
       </c>
     </row>
     <row r="27" spans="1:105">
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>2341</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="AZ56">
-        <v>0</v>
+        <v>544.4186046511628</v>
       </c>
       <c r="BA56">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="CL56">
-        <v>0</v>
+        <v>0.6404924760601916</v>
       </c>
       <c r="CM56">
         <v>0</v>
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
       <c r="DA56">
-        <v>0.2109579105206263</v>
+        <v>0.5595803974900977</v>
       </c>
     </row>
     <row r="57" spans="1:105">
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="BN73">
-        <v>0</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="BO73">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="CZ73">
-        <v>0</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="DA73">
-        <v>0.09166696741131043</v>
+        <v>0.1990905481973366</v>
       </c>
     </row>
     <row r="74" spans="1:105">
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="O74">
         <v>212</v>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="AZ74">
-        <v>0</v>
+        <v>853.3333333333334</v>
       </c>
       <c r="BA74">
         <v>669.4736842105264</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="CL74">
-        <v>0</v>
+        <v>1.003921568627451</v>
       </c>
       <c r="CM74">
         <v>0.8368421052631579</v>
@@ -24696,7 +24696,7 @@
         <v>0</v>
       </c>
       <c r="DA74">
-        <v>0.7552980972515856</v>
+        <v>0.7973227210545952</v>
       </c>
     </row>
     <row r="75" spans="1:105">
@@ -25691,7 +25691,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="O78">
         <v>3</v>
@@ -25805,7 +25805,7 @@
         <v>7.692307692307693</v>
       </c>
       <c r="AZ78">
-        <v>0</v>
+        <v>721.875</v>
       </c>
       <c r="BA78">
         <v>11.25</v>
@@ -25919,7 +25919,7 @@
         <v>0.001658539821541115</v>
       </c>
       <c r="CL78">
-        <v>0</v>
+        <v>0.8492647058823529</v>
       </c>
       <c r="CM78">
         <v>0.0140625</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="DA78">
-        <v>0.1743184425064058</v>
+        <v>0.3126210918104022</v>
       </c>
     </row>
     <row r="79" spans="1:105">
@@ -27581,7 +27581,7 @@
         <v>0.8854961832061069</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="AV84">
-        <v>0</v>
+        <v>65.58139534883721</v>
       </c>
       <c r="AW84">
         <v>0</v>
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="CH84">
-        <v>0</v>
+        <v>0.8744186046511627</v>
       </c>
       <c r="CI84">
         <v>0</v>
@@ -27866,7 +27866,7 @@
         <v>0</v>
       </c>
       <c r="DA84">
-        <v>0.2990524365916215</v>
+        <v>0.5421558848674836</v>
       </c>
     </row>
     <row r="85" spans="1:105">
